--- a/cam3_validation_result.xlsx
+++ b/cam3_validation_result.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA18B27-598C-461F-A38C-41C6C2FEC98F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33A5B7-B0AC-4A20-A2AE-D30F1F71AF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{D49BA48B-295B-49C3-89D6-5EF2990A6FBC}"/>
+    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{D49BA48B-295B-49C3-89D6-5EF2990A6FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$2:$E$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,36 +40,47 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S_Real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_Pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Angle_Pred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>S_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Angle_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Mean_Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Qualified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Qua_Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>95%_Confidence_Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -220,274 +230,274 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-1.128251715506849</c:v>
+                  <c:v>-0.38081248444950688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6126924043373947</c:v>
+                  <c:v>1.8804361664761018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94151471085297089</c:v>
+                  <c:v>1.3269333277758051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.36379446650835234</c:v>
+                  <c:v>0.80442327396212931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39855716916827078</c:v>
+                  <c:v>-0.39868843128761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.76952422762542483</c:v>
+                  <c:v>-0.89070230414017715</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.0904666403366718</c:v>
+                  <c:v>-1.0242248559957261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0819819369417019</c:v>
+                  <c:v>0.15663533278257091</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9716984595011127</c:v>
+                  <c:v>0.15786017515301864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.110760720118833</c:v>
+                  <c:v>-0.17374007301987149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.0922381496111484</c:v>
+                  <c:v>-0.25185848298360725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.57632442379963322</c:v>
+                  <c:v>0.28650829145499301</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.65689619627346474</c:v>
+                  <c:v>0.80857847490096901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.3540120600227965</c:v>
+                  <c:v>1.1144245209648034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.38601163815064865</c:v>
+                  <c:v>0.70949108809372774</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16745129644641565</c:v>
+                  <c:v>2.0133326847267199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.82541198753915523</c:v>
+                  <c:v>0.53594562528041934</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61866797734592183</c:v>
+                  <c:v>1.9700091503232215</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.57977282490855941</c:v>
+                  <c:v>-0.95415762180573438</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.72245108728975538</c:v>
+                  <c:v>1.4956326500155228</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.50596563826638885</c:v>
+                  <c:v>0.69889513865609842</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.5362476108480223</c:v>
+                  <c:v>-0.15529544200580858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.24341982602481949</c:v>
+                  <c:v>0.17229965361866562</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.9291801027297879</c:v>
+                  <c:v>0.41936667677282458</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.5034137805191676</c:v>
+                  <c:v>-1.1368101038215173</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.86620493381906272</c:v>
+                  <c:v>-0.58279270118009663</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.2512322086627137</c:v>
+                  <c:v>-8.5210470424044615E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.60958733962843326</c:v>
+                  <c:v>-0.71752424410669846</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.96627541057569033</c:v>
+                  <c:v>0.37746099566084013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.37112079568396439</c:v>
+                  <c:v>0.39767211096841493</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.88177838027695543</c:v>
+                  <c:v>0.31951472982927953</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.44284581345891638</c:v>
+                  <c:v>0.74470800673452686</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.4154720474307396</c:v>
+                  <c:v>0.2057286628410111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.97570994145553414</c:v>
+                  <c:v>0.22777010781419449</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.15196591817402805</c:v>
+                  <c:v>0.21930466262983828</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.1065004490442334</c:v>
+                  <c:v>1.8694429568695341</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.65233840623432116</c:v>
+                  <c:v>0.37577762467117282</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.87846200242211125</c:v>
+                  <c:v>2.499154487449232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.1867194939823094E-2</c:v>
+                  <c:v>2.1555744443503499E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.3177499437847473</c:v>
+                  <c:v>0.59840246151043175</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.24042706923955848</c:v>
+                  <c:v>0.25442223374875539</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.1896266173212098</c:v>
+                  <c:v>-0.77739267319611827</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.92090988284280684</c:v>
+                  <c:v>-0.31955260814538633</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.0507972035302373</c:v>
+                  <c:v>-0.21295401042698359</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.9239077590736997E-2</c:v>
+                  <c:v>0.93254089140418728</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.41510645287280568</c:v>
+                  <c:v>0.36801669619717359</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.44735736988695862</c:v>
+                  <c:v>1.5096034250796038</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55260509087338505</c:v>
+                  <c:v>0.24405867985478835</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.26662971774612743</c:v>
+                  <c:v>0.46862915776500813</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.15695415551454062</c:v>
+                  <c:v>1.1698066961744189</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-1.8040551179851718</c:v>
+                  <c:v>-0.14854437953863453</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.16823902859505324</c:v>
+                  <c:v>-0.16346338917583125</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.6138389823840953</c:v>
+                  <c:v>-0.7126168292084003</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.68569553023553453</c:v>
+                  <c:v>0.17797789314681722</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.21765708326392996</c:v>
+                  <c:v>0.46914084643321985</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.97961204209605057</c:v>
+                  <c:v>1.0850140080688107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.80205734847550048</c:v>
+                  <c:v>-9.0421663779579831E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-1.0970168326989551</c:v>
+                  <c:v>0.63522978958144449</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.0918460129232699E-2</c:v>
+                  <c:v>0.91270632559690057</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.68765809580963833</c:v>
+                  <c:v>-0.29685076882560679</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.9211937967929771</c:v>
+                  <c:v>-5.654851015924578E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.87204933882367186</c:v>
+                  <c:v>0.9010307665507753</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.80329139029663565</c:v>
+                  <c:v>-0.92126340343475022</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-5.5997273727371066E-2</c:v>
+                  <c:v>1.3977256931962074</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.53678944736338963</c:v>
+                  <c:v>-0.71907924669403656</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.39343221833541975</c:v>
+                  <c:v>-0.72102096829485163</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.142174658224576</c:v>
+                  <c:v>0.31424132090523926</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.640131405009015</c:v>
+                  <c:v>0.41348702212508215</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.2720841721497891</c:v>
+                  <c:v>-8.3533230393186386E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.26140644681345293</c:v>
+                  <c:v>-1.0350566534079917</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.9520075247464774</c:v>
+                  <c:v>-1.9865630442786824</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.96935739767150153</c:v>
+                  <c:v>-0.7875210043334846</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.59974668923086938</c:v>
+                  <c:v>7.6616915554041043E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.6993045261374391</c:v>
+                  <c:v>0.42220096621895209</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.21297830910498305</c:v>
+                  <c:v>-0.60011700599852702</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.0332482063049611</c:v>
+                  <c:v>-0.47958706861891187</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.3332167684161504</c:v>
+                  <c:v>-1.8853490536380377</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.6023863318282565</c:v>
+                  <c:v>-0.36062832256493493</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.9323812655024994</c:v>
+                  <c:v>0.16613454905746039</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.0635438346048431</c:v>
+                  <c:v>-0.70749544592399616</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.82863076111971168</c:v>
+                  <c:v>0.9073091959166959</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-0.35998425051548111</c:v>
+                  <c:v>0.16377271040164487</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.1578467972176441E-2</c:v>
+                  <c:v>1.7381131202851066</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.75503148484949634</c:v>
+                  <c:v>0.69476128123415037</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.48502568389449152</c:v>
+                  <c:v>3.4117909958695236E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.1915017787982833</c:v>
+                  <c:v>-0.55933565679742969</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.72171431012338871</c:v>
+                  <c:v>0.17255531600540053</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.3267123958930824</c:v>
+                  <c:v>-1.2954786135023824</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-2.3993130338280935</c:v>
+                  <c:v>-3.1348228555020796</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.62487137897005596</c:v>
+                  <c:v>-1.1964628377941153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,7 +684,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1892,8 +1902,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5682343" y="12656976"/>
-              <a:ext cx="2509936" cy="2743200"/>
+              <a:off x="5682343" y="12602547"/>
+              <a:ext cx="2509936" cy="2731537"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2225,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527DBC63-0594-49DE-B5FF-DC6DE7AD87EC}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N79" sqref="N79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2253,48 +2263,48 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2551.8717482844932</v>
+        <v>2550.7191875155504</v>
       </c>
       <c r="D2">
-        <v>-0.15632372458231997</v>
+        <v>-2.4150948458958335E-2</v>
       </c>
       <c r="E2">
-        <v>-1.128251715506849</v>
+        <v>-0.38081248444950688</v>
       </c>
       <c r="F2">
-        <v>-0.15632372458231997</v>
+        <v>-2.4150948458958335E-2</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.86148115047116236</v>
+        <v>0.71121387258589897</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B3">
         <v>-16.07</v>
       </c>
       <c r="C3">
-        <v>2551.3873075956626</v>
+        <v>2552.980436166476</v>
       </c>
       <c r="D3">
-        <v>-15.96282563777045</v>
+        <v>-16.10654802539651</v>
       </c>
       <c r="E3">
-        <v>-1.6126924043373947</v>
+        <v>1.8804361664761018</v>
       </c>
       <c r="F3">
-        <v>0.10717436222955001</v>
+        <v>-3.6548025396509587E-2</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2305,1780 +2315,1780 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B4">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C4">
-        <v>2553.941514710853</v>
+        <v>2552.4269333277757</v>
       </c>
       <c r="D4">
-        <v>-13.911076291159375</v>
+        <v>-13.984300159568926</v>
       </c>
       <c r="E4">
-        <v>0.94151471085297089</v>
+        <v>1.3269333277758051</v>
       </c>
       <c r="F4">
-        <v>6.8923708840625153E-2</v>
+        <v>1.5699840431073753E-2</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B5">
-        <v>-11.98</v>
+        <v>-11.93</v>
       </c>
       <c r="C5">
-        <v>2552.6362055334916</v>
+        <v>2551.904423273962</v>
       </c>
       <c r="D5">
-        <v>-11.945549856302518</v>
+        <v>-11.912376420832222</v>
       </c>
       <c r="E5">
-        <v>-0.36379446650835234</v>
+        <v>0.80442327396212931</v>
       </c>
       <c r="F5">
-        <v>3.4450143697482005E-2</v>
+        <v>1.7623579167777237E-2</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.9555555555555556</v>
+        <v>0.96666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B6">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C6">
-        <v>2553.3985571691683</v>
+        <v>2550.7013115687123</v>
       </c>
       <c r="D6">
-        <v>-9.9930556054999062</v>
+        <v>-9.9176320023742939</v>
       </c>
       <c r="E6">
-        <v>0.39855716916827078</v>
+        <v>-0.39868843128761</v>
       </c>
       <c r="F6">
-        <v>-1.3055605499905809E-2</v>
+        <v>3.2367997625705414E-2</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.9716984595011127</v>
+        <v>1.9700091503232215</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B7">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="C7">
-        <v>2552.2304757723746</v>
+        <v>2550.2092976958597</v>
       </c>
       <c r="D7">
-        <v>-8.0166631118922496</v>
+        <v>-7.8870213559074092</v>
       </c>
       <c r="E7">
-        <v>-0.76952422762542483</v>
+        <v>-0.89070230414017715</v>
       </c>
       <c r="F7">
-        <v>-6.6663111892249383E-2</v>
+        <v>4.2978644092590557E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B8">
-        <v>-5.98</v>
+        <v>-5.93</v>
       </c>
       <c r="C8">
-        <v>2550.9095333596633</v>
+        <v>2550.0757751440042</v>
       </c>
       <c r="D8">
-        <v>-6.0708840876234254</v>
+        <v>-5.8745931734298766</v>
       </c>
       <c r="E8" s="1">
-        <v>-2.0904666403366718</v>
+        <v>-1.0242248559957261</v>
       </c>
       <c r="F8">
-        <v>-9.0884087623424925E-2</v>
+        <v>5.540682657012308E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B9">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="C9">
-        <v>2550.9180180630583</v>
+        <v>2551.2566353327825</v>
       </c>
       <c r="D9">
-        <v>-4.0854156060733615</v>
+        <v>-3.8749561618133153</v>
       </c>
       <c r="E9" s="1">
-        <v>-2.0819819369417019</v>
+        <v>0.15663533278257091</v>
       </c>
       <c r="F9">
-        <v>-0.10541560607336153</v>
+        <v>2.5043838186684653E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B10">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="C10">
-        <v>2551.0283015404989</v>
+        <v>2551.2578601751529</v>
       </c>
       <c r="D10">
-        <v>-2.0995889630669078</v>
+        <v>-1.8738270532947017</v>
       </c>
       <c r="E10">
-        <v>-1.9716984595011127</v>
+        <v>0.15786017515301864</v>
       </c>
       <c r="F10">
-        <v>-0.11958896306690781</v>
+        <v>2.6172946705298239E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>2551.8892392798812</v>
+        <v>2550.92625992698</v>
       </c>
       <c r="D11">
-        <v>-0.12073809825656168</v>
+        <v>0.12124148779233337</v>
       </c>
       <c r="E11">
-        <v>-1.110760720118833</v>
+        <v>-0.17374007301987149</v>
       </c>
       <c r="F11">
-        <v>-0.12073809825656168</v>
+        <v>2.1241487792333369E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C12">
-        <v>2551.9077618503889</v>
+        <v>2550.8481415170163</v>
       </c>
       <c r="D12">
-        <v>1.8919695584475762</v>
+        <v>2.1192284295775439</v>
       </c>
       <c r="E12">
-        <v>-1.0922381496111484</v>
+        <v>-0.25185848298360725</v>
       </c>
       <c r="F12">
-        <v>-0.10803044155242381</v>
+        <v>1.9228429577543782E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="C13">
-        <v>2552.4236755762004</v>
+        <v>2551.3865082914549</v>
       </c>
       <c r="D13">
-        <v>3.9026569384339185</v>
+        <v>4.0964776839978621</v>
       </c>
       <c r="E13">
-        <v>-0.57632442379963322</v>
+        <v>0.28650829145499301</v>
       </c>
       <c r="F13">
-        <v>-9.7343061566081523E-2</v>
+        <v>1.647768399786198E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B14">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="C14">
-        <v>2552.3431038037265</v>
+        <v>2551.9085784749009</v>
       </c>
       <c r="D14">
-        <v>5.9127681422254614</v>
+        <v>6.0809713227253166</v>
       </c>
       <c r="E14">
-        <v>-0.65689619627346474</v>
+        <v>0.80857847490096901</v>
       </c>
       <c r="F14">
-        <v>-5.7231857774538319E-2</v>
+        <v>-1.9028677274683048E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B15">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="C15">
-        <v>2551.6459879399772</v>
+        <v>2552.2144245209647</v>
       </c>
       <c r="D15">
-        <v>7.9372005450594294</v>
+        <v>8.0621128184681243</v>
       </c>
       <c r="E15">
-        <v>-1.3540120600227965</v>
+        <v>1.1144245209648034</v>
       </c>
       <c r="F15">
-        <v>3.7200545059429047E-2</v>
+        <v>-7.8871815318759531E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B16">
-        <v>10.029999999999999</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>2552.6139883618494</v>
+        <v>2551.8094910880936</v>
       </c>
       <c r="D16">
-        <v>10.036310236896227</v>
+        <v>10.071449562451436</v>
       </c>
       <c r="E16">
-        <v>-0.38601163815064865</v>
+        <v>0.70949108809372774</v>
       </c>
       <c r="F16">
-        <v>6.3102368962280053E-3</v>
+        <v>7.1449562451435966E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B17">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="C17">
-        <v>2553.1674512964464</v>
+        <v>2553.1133326847266</v>
       </c>
       <c r="D17">
-        <v>12.005495535148935</v>
+        <v>12.14186391126446</v>
       </c>
       <c r="E17">
-        <v>0.16745129644641565</v>
+        <v>2.0133326847267199</v>
       </c>
       <c r="F17">
-        <v>2.5495535148934323E-2</v>
+        <v>4.186391126446054E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B18">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="C18">
-        <v>2552.1745880124608</v>
+        <v>2551.6359456252803</v>
       </c>
       <c r="D18">
-        <v>14.006187469958505</v>
+        <v>14.090495314168376</v>
       </c>
       <c r="E18">
-        <v>-0.82541198753915523</v>
+        <v>0.53594562528041934</v>
       </c>
       <c r="F18">
-        <v>2.6187469958504295E-2</v>
+        <v>2.0495314168375245E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2553</v>
+        <v>2551.1</v>
       </c>
       <c r="B19">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="C19">
-        <v>2553.6186679773459</v>
+        <v>2553.0700091503231</v>
       </c>
       <c r="D19">
-        <v>15.996200449581593</v>
+        <v>16.042810961300464</v>
       </c>
       <c r="E19">
-        <v>0.61866797734592183</v>
+        <v>1.9700091503232215</v>
       </c>
       <c r="F19">
-        <v>1.6200449581592835E-2</v>
+        <v>-2.7189038699535928E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2652.1202271750913</v>
+        <v>2649.8458423781944</v>
       </c>
       <c r="D20">
-        <v>-0.13667776473390242</v>
+        <v>-2.7061683271545924E-2</v>
       </c>
       <c r="E20">
-        <v>-0.57977282490855941</v>
+        <v>-0.95415762180573438</v>
       </c>
       <c r="F20">
-        <v>-0.13667776473390242</v>
+        <v>-2.7061683271545924E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B21">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C21">
-        <v>2651.9775489127101</v>
+        <v>2652.2956326500157</v>
       </c>
       <c r="D21">
-        <v>-15.917678407370444</v>
+        <v>-16.125914175758066</v>
       </c>
       <c r="E21">
-        <v>-0.72245108728975538</v>
+        <v>1.4956326500155228</v>
       </c>
       <c r="F21">
-        <v>0.15232159262955669</v>
+        <v>-4.5914175758067444E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B22">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C22">
-        <v>2653.2059656382662</v>
+        <v>2651.4988951386563</v>
       </c>
       <c r="D22">
-        <v>-13.87356740815642</v>
+        <v>-13.994729477255593</v>
       </c>
       <c r="E22">
-        <v>0.50596563826638885</v>
+        <v>0.69889513865609842</v>
       </c>
       <c r="F22">
-        <v>0.10643259184358023</v>
+        <v>5.2705227444072023E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B23">
-        <v>-11.98</v>
+        <v>-11.92</v>
       </c>
       <c r="C23">
-        <v>2652.1637523891518</v>
+        <v>2650.6447045579944</v>
       </c>
       <c r="D23">
-        <v>-11.91181943922037</v>
+        <v>-11.931648047667972</v>
       </c>
       <c r="E23">
-        <v>-0.5362476108480223</v>
+        <v>-0.15529544200580858</v>
       </c>
       <c r="F23">
-        <v>6.8180560779630639E-2</v>
+        <v>-1.1648047667971895E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B24">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C24">
-        <v>2652.9434198260246</v>
+        <v>2650.9722996536188</v>
       </c>
       <c r="D24">
-        <v>-9.9569246658062429</v>
+        <v>-9.9460192992019216</v>
       </c>
       <c r="E24">
-        <v>0.24341982602481949</v>
+        <v>0.17229965361866562</v>
       </c>
       <c r="F24">
-        <v>2.3075334193757513E-2</v>
+        <v>3.9807007980776632E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B25">
-        <v>-7.95</v>
+        <v>-7.92</v>
       </c>
       <c r="C25">
-        <v>2651.77081989727</v>
+        <v>2651.219366676773</v>
       </c>
       <c r="D25">
-        <v>-7.9845931001082313</v>
+        <v>-7.9160261606153783</v>
       </c>
       <c r="E25">
-        <v>-0.9291801027297879</v>
+        <v>0.41936667677282458</v>
       </c>
       <c r="F25">
-        <v>-3.4593100108231134E-2</v>
+        <v>3.9738393846215914E-3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B26">
-        <v>-5.98</v>
+        <v>-5.9</v>
       </c>
       <c r="C26">
-        <v>2651.1965862194807</v>
+        <v>2649.6631898961787</v>
       </c>
       <c r="D26">
-        <v>-6.0418863397478351</v>
+        <v>-5.9129965220753702</v>
       </c>
       <c r="E26">
-        <v>-1.5034137805191676</v>
+        <v>-1.1368101038215173</v>
       </c>
       <c r="F26">
-        <v>-6.188633974783464E-2</v>
+        <v>-1.2996522075369832E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B27">
-        <v>-3.98</v>
+        <v>-3.92</v>
       </c>
       <c r="C27">
-        <v>2651.8337950661808</v>
+        <v>2650.2172072988201</v>
       </c>
       <c r="D27">
-        <v>-4.0710358162144127</v>
+        <v>-3.9121402793106772</v>
       </c>
       <c r="E27">
-        <v>-0.86620493381906272</v>
+        <v>-0.58279270118009663</v>
       </c>
       <c r="F27">
-        <v>-9.1035816214412701E-2</v>
+        <v>7.8597206893227245E-3</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B28">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="C28">
-        <v>2651.4487677913371</v>
+        <v>2650.7147895295761</v>
       </c>
       <c r="D28">
-        <v>-2.0808129133057114</v>
+        <v>-1.8805060544560428</v>
       </c>
       <c r="E28">
-        <v>-1.2512322086627137</v>
+        <v>-8.5210470424044615E-2</v>
       </c>
       <c r="F28">
-        <v>-0.1008129133057114</v>
+        <v>1.9493945543957114E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C29">
-        <v>2652.0904126603714</v>
+        <v>2650.0824757558935</v>
       </c>
       <c r="D29">
-        <v>-9.6045109218634475E-2</v>
+        <v>9.1567478911784517E-2</v>
       </c>
       <c r="E29">
-        <v>-0.60958733962843326</v>
+        <v>-0.71752424410669846</v>
       </c>
       <c r="F29">
-        <v>-9.6045109218634475E-2</v>
+        <v>-8.4325210882154888E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="C30">
-        <v>2651.7337245894241</v>
+        <v>2651.177460995661</v>
       </c>
       <c r="D30">
-        <v>1.9012968386437685</v>
+        <v>2.0638534803782407</v>
       </c>
       <c r="E30">
-        <v>-0.96627541057569033</v>
+        <v>0.37746099566084013</v>
       </c>
       <c r="F30">
-        <v>-9.8703161356231472E-2</v>
+        <v>-1.6146519621759392E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="C31">
-        <v>2653.0711207956838</v>
+        <v>2651.1976721109686</v>
       </c>
       <c r="D31">
-        <v>3.9086609953045257</v>
+        <v>4.0655745520995978</v>
       </c>
       <c r="E31">
-        <v>0.37112079568396439</v>
+        <v>0.39767211096841493</v>
       </c>
       <c r="F31">
-        <v>-9.1339004695474291E-2</v>
+        <v>-1.4425447900402233E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="C32">
-        <v>2651.8182216197229</v>
+        <v>2651.1195147298295</v>
       </c>
       <c r="D32">
-        <v>5.9082176097611887</v>
+        <v>6.0625558627323031</v>
       </c>
       <c r="E32">
-        <v>-0.88177838027695543</v>
+        <v>0.31951472982927953</v>
       </c>
       <c r="F32">
-        <v>-9.1782390238811296E-2</v>
+        <v>-1.7444137267697002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B33">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="C33">
-        <v>2653.1428458134587</v>
+        <v>2651.5447080067347</v>
       </c>
       <c r="D33">
-        <v>7.9446515688258419</v>
+        <v>8.0503203110860664</v>
       </c>
       <c r="E33">
-        <v>0.44284581345891638</v>
+        <v>0.74470800673452686</v>
       </c>
       <c r="F33">
-        <v>4.4651568825841537E-2</v>
+        <v>-4.9679688913933262E-2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B34">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C34">
-        <v>2651.2845279525691</v>
+        <v>2651.0057286628412</v>
       </c>
       <c r="D34">
-        <v>10.031848661169864</v>
+        <v>10.028111780637447</v>
       </c>
       <c r="E34">
-        <v>-1.4154720474307396</v>
+        <v>0.2057286628410111</v>
       </c>
       <c r="F34">
-        <v>1.848661169864485E-3</v>
+        <v>5.8111780637446486E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B35">
-        <v>11.98</v>
+        <v>12.07</v>
       </c>
       <c r="C35">
-        <v>2651.7242900585443</v>
+        <v>2651.0277701078144</v>
       </c>
       <c r="D35">
-        <v>11.988618242885707</v>
+        <v>12.109631334638351</v>
       </c>
       <c r="E35">
-        <v>-0.97570994145553414</v>
+        <v>0.22777010781419449</v>
       </c>
       <c r="F35">
-        <v>8.6182428857064508E-3</v>
+        <v>3.9631334638350779E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B36">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="C36">
-        <v>2652.8519659181738</v>
+        <v>2651.01930466263</v>
       </c>
       <c r="D36">
-        <v>13.992729854226022</v>
+        <v>14.071385514610867</v>
       </c>
       <c r="E36">
-        <v>0.15196591817402805</v>
+        <v>0.21930466262983828</v>
       </c>
       <c r="F36">
-        <v>1.2729854226021686E-2</v>
+        <v>1.3855146108667782E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2652.7</v>
+        <v>2650.8</v>
       </c>
       <c r="B37">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="C37">
-        <v>2651.5934995509556</v>
+        <v>2652.6694429568697</v>
       </c>
       <c r="D37">
-        <v>15.984288078281439</v>
+        <v>16.024091093355402</v>
       </c>
       <c r="E37">
-        <v>-1.1065004490442334</v>
+        <v>1.8694429568695341</v>
       </c>
       <c r="F37">
-        <v>4.2880782814389562E-3</v>
+        <v>-4.5908906644598346E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>2751.7476615937658</v>
+        <v>2750.8757776246712</v>
       </c>
       <c r="D38">
-        <v>-0.12196374709566619</v>
+        <v>-2.1311865426201913E-2</v>
       </c>
       <c r="E38">
-        <v>-0.65233840623432116</v>
+        <v>0.37577762467117282</v>
       </c>
       <c r="F38">
-        <v>-0.12196374709566619</v>
+        <v>-2.1311865426201913E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B39">
-        <v>-16.07</v>
+        <v>-16.079999999999998</v>
       </c>
       <c r="C39">
-        <v>2751.521537997578</v>
+        <v>2752.9991544874492</v>
       </c>
       <c r="D39">
-        <v>-15.874272509535784</v>
+        <v>-16.133736422756979</v>
       </c>
       <c r="E39">
-        <v>-0.87846200242211125</v>
+        <v>2.499154487449232</v>
       </c>
       <c r="F39">
-        <v>0.19572749046421656</v>
+        <v>-5.3736422756980318E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B40">
-        <v>-13.98</v>
+        <v>-14</v>
       </c>
       <c r="C40">
-        <v>2752.4918671949399</v>
+        <v>2750.5215557444435</v>
       </c>
       <c r="D40">
-        <v>-13.846250220082126</v>
+        <v>-14.011533765239923</v>
       </c>
       <c r="E40">
-        <v>9.1867194939823094E-2</v>
+        <v>2.1555744443503499E-2</v>
       </c>
       <c r="F40">
-        <v>0.13374977991787418</v>
+        <v>-1.1533765239923E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B41">
-        <v>-11.98</v>
+        <v>-11.92</v>
       </c>
       <c r="C41">
-        <v>2751.0822500562153</v>
+        <v>2751.0984024615104</v>
       </c>
       <c r="D41">
-        <v>-11.879686007029127</v>
+        <v>-11.941359637031399</v>
       </c>
       <c r="E41">
-        <v>-1.3177499437847473</v>
+        <v>0.59840246151043175</v>
       </c>
       <c r="F41">
-        <v>0.1003139929708734</v>
+        <v>-2.1359637031398648E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B42">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C42">
-        <v>2752.1595729307605</v>
+        <v>2750.7544222337488</v>
       </c>
       <c r="D42">
-        <v>-9.9153178257644292</v>
+        <v>-9.9470421323857465</v>
       </c>
       <c r="E42">
-        <v>-0.24042706923955848</v>
+        <v>0.25442223374875539</v>
       </c>
       <c r="F42">
-        <v>6.468217423557121E-2</v>
+        <v>2.9578676142527627E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B43">
-        <v>-7.95</v>
+        <v>-7.92</v>
       </c>
       <c r="C43">
-        <v>2750.2103733826789</v>
+        <v>2749.7226073268039</v>
       </c>
       <c r="D43">
-        <v>-7.9559922129296234</v>
+        <v>-7.9174090435545263</v>
       </c>
       <c r="E43" s="1">
-        <v>-2.1896266173212098</v>
+        <v>-0.77739267319611827</v>
       </c>
       <c r="F43">
-        <v>-5.992212929623264E-3</v>
+        <v>2.5909564454735801E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B44">
-        <v>-5.98</v>
+        <v>-5.92</v>
       </c>
       <c r="C44">
-        <v>2751.4790901171573</v>
+        <v>2750.1804473918546</v>
       </c>
       <c r="D44">
-        <v>-6.0103610954791815</v>
+        <v>-5.8971315216948366</v>
       </c>
       <c r="E44">
-        <v>-0.92090988284280684</v>
+        <v>-0.31955260814538633</v>
       </c>
       <c r="F44">
-        <v>-3.0361095479181088E-2</v>
+        <v>2.2868478305163364E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B45">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="C45">
-        <v>2751.3492027964699</v>
+        <v>2750.287045989573</v>
       </c>
       <c r="D45">
-        <v>-4.0464756193184304</v>
+        <v>-3.8877428077336256</v>
       </c>
       <c r="E45">
-        <v>-1.0507972035302373</v>
+        <v>-0.21295401042698359</v>
       </c>
       <c r="F45">
-        <v>-6.6475619318430379E-2</v>
+        <v>1.2257192266374339E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B46">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="C46">
-        <v>2752.4692390775908</v>
+        <v>2751.4325408914042</v>
       </c>
       <c r="D46">
-        <v>-2.0607031322476987</v>
+        <v>-1.9022914229083618</v>
       </c>
       <c r="E46">
-        <v>6.9239077590736997E-2</v>
+        <v>0.93254089140418728</v>
       </c>
       <c r="F46">
-        <v>-8.0703132247698761E-2</v>
+        <v>-2.2914229083619286E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C47">
-        <v>2751.9848935471273</v>
+        <v>2750.8680166961972</v>
       </c>
       <c r="D47">
-        <v>-8.0798943434930451E-2</v>
+        <v>8.9218679067389034E-2</v>
       </c>
       <c r="E47">
-        <v>-0.41510645287280568</v>
+        <v>0.36801669619717359</v>
       </c>
       <c r="F47">
-        <v>-8.0798943434930451E-2</v>
+        <v>9.2186790673890323E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="C48">
-        <v>2752.847357369887</v>
+        <v>2752.0096034250796</v>
       </c>
       <c r="D48">
-        <v>1.9118582555259303</v>
+        <v>2.0592423674885909</v>
       </c>
       <c r="E48">
-        <v>0.44735736988695862</v>
+        <v>1.5096034250796038</v>
       </c>
       <c r="F48">
-        <v>-8.814174447406975E-2</v>
+        <v>-2.0757632511409163E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="C49">
-        <v>2752.9526050908735</v>
+        <v>2750.7440586798548</v>
       </c>
       <c r="D49">
-        <v>3.9209317044992034</v>
+        <v>4.06530494491422</v>
       </c>
       <c r="E49">
-        <v>0.55260509087338505</v>
+        <v>0.24405867985478835</v>
       </c>
       <c r="F49">
-        <v>-7.9068295500796637E-2</v>
+        <v>-1.4695055085780062E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B50">
-        <v>5.97</v>
+        <v>6.08</v>
       </c>
       <c r="C50">
-        <v>2752.133370282254</v>
+        <v>2750.968629157765</v>
       </c>
       <c r="D50">
-        <v>5.9180207855422502</v>
+        <v>6.0473036307484387</v>
       </c>
       <c r="E50">
-        <v>-0.26662971774612743</v>
+        <v>0.46862915776500813</v>
       </c>
       <c r="F50">
-        <v>-5.1979214457749556E-2</v>
+        <v>-3.2696369251561386E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B51">
-        <v>7.9</v>
+        <v>8.08</v>
       </c>
       <c r="C51">
-        <v>2752.5569541555146</v>
+        <v>2751.6698066961744</v>
       </c>
       <c r="D51">
-        <v>7.958050209000131</v>
+        <v>8.036042768107091</v>
       </c>
       <c r="E51">
-        <v>0.15695415551454062</v>
+        <v>1.1698066961744189</v>
       </c>
       <c r="F51">
-        <v>5.8050209000130693E-2</v>
+        <v>-4.3957231892909121E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B52">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C52">
-        <v>2750.5959448820149</v>
+        <v>2750.3514556204614</v>
       </c>
       <c r="D52">
-        <v>10.049606080921039</v>
+        <v>10.020473176385977</v>
       </c>
       <c r="E52">
-        <v>-1.8040551179851718</v>
+        <v>-0.14854437953863453</v>
       </c>
       <c r="F52">
-        <v>1.9606080921040103E-2</v>
+        <v>5.0473176385976259E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B53">
-        <v>11.98</v>
+        <v>12.07</v>
       </c>
       <c r="C53">
-        <v>2752.231760971405</v>
+        <v>2750.3365366108242</v>
       </c>
       <c r="D53">
-        <v>11.993108232911609</v>
+        <v>12.093948176608791</v>
       </c>
       <c r="E53">
-        <v>-0.16823902859505324</v>
+        <v>-0.16346338917583125</v>
       </c>
       <c r="F53">
-        <v>1.3108232911609008E-2</v>
+        <v>2.3948176608790561E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B54">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="C54">
-        <v>2750.786161017616</v>
+        <v>2749.7873831707916</v>
       </c>
       <c r="D54">
-        <v>13.994462550191621</v>
+        <v>14.061225132190861</v>
       </c>
       <c r="E54">
-        <v>-1.6138389823840953</v>
+        <v>-0.7126168292084003</v>
       </c>
       <c r="F54">
-        <v>1.4462550191620238E-2</v>
+        <v>-8.7748678091390531E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2752.4</v>
+        <v>2750.5</v>
       </c>
       <c r="B55">
-        <v>15.98</v>
+        <v>16.07</v>
       </c>
       <c r="C55">
-        <v>2751.7143044697646</v>
+        <v>2750.6779778931468</v>
       </c>
       <c r="D55">
-        <v>15.97609709449663</v>
+        <v>16.018302644182025</v>
       </c>
       <c r="E55">
-        <v>-0.68569553023553453</v>
+        <v>0.17797789314681722</v>
       </c>
       <c r="F55">
-        <v>-3.9029055033701354E-3</v>
+        <v>-5.1697355817974966E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2852.3176570832638</v>
+        <v>2850.669140846433</v>
       </c>
       <c r="D56">
-        <v>-9.2896458409313459E-2</v>
+        <v>-1.5325389500658338E-2</v>
       </c>
       <c r="E56">
-        <v>0.21765708326392996</v>
+        <v>0.46914084643321985</v>
       </c>
       <c r="F56">
-        <v>-9.2896458409313459E-2</v>
+        <v>-1.5325389500658338E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B57">
         <v>-16.07</v>
       </c>
       <c r="C57">
-        <v>2851.1203879579039</v>
+        <v>2851.2850140080686</v>
       </c>
       <c r="D57">
-        <v>-15.838436141762065</v>
+        <v>-16.105044716264409</v>
       </c>
       <c r="E57">
-        <v>-0.97961204209605057</v>
+        <v>1.0850140080688107</v>
       </c>
       <c r="F57">
-        <v>0.23156385823793535</v>
+        <v>-3.5044716264408748E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B58">
         <v>-13.98</v>
       </c>
       <c r="C58">
-        <v>2852.9020573484754</v>
+        <v>2850.1095783362202</v>
       </c>
       <c r="D58">
-        <v>-13.792746221405729</v>
+        <v>-13.986219102430471</v>
       </c>
       <c r="E58">
-        <v>0.80205734847550048</v>
+        <v>-9.0421663779579831E-2</v>
       </c>
       <c r="F58">
-        <v>0.18725377859427184</v>
+        <v>-6.2191024304709686E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B59">
-        <v>-11.98</v>
+        <v>-11.93</v>
       </c>
       <c r="C59">
-        <v>2851.002983167301</v>
+        <v>2850.8352297895813</v>
       </c>
       <c r="D59">
-        <v>-11.834759227417743</v>
+        <v>-11.929743193025597</v>
       </c>
       <c r="E59">
-        <v>-1.0970168326989551</v>
+        <v>0.63522978958144449</v>
       </c>
       <c r="F59">
-        <v>0.14524077258225709</v>
+        <v>2.5680697440222389E-4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B60">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C60">
-        <v>2852.1109184601291</v>
+        <v>2851.1127063255967</v>
       </c>
       <c r="D60">
-        <v>-9.8827017721903552</v>
+        <v>-9.9321836067294438</v>
       </c>
       <c r="E60">
-        <v>1.0918460129232699E-2</v>
+        <v>0.91270632559690057</v>
       </c>
       <c r="F60">
-        <v>9.7298227809645255E-2</v>
+        <v>1.7816393270555508E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B61">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="C61">
-        <v>2851.4123419041903</v>
+        <v>2849.9031492311742</v>
       </c>
       <c r="D61">
-        <v>-7.9340194935803368</v>
+        <v>-7.9139355018147279</v>
       </c>
       <c r="E61">
-        <v>-0.68765809580963833</v>
+        <v>-0.29685076882560679</v>
       </c>
       <c r="F61">
-        <v>1.5980506419663421E-2</v>
+        <v>1.6064498185271781E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B62">
-        <v>-5.98</v>
+        <v>-5.93</v>
       </c>
       <c r="C62">
-        <v>2850.1788062032069</v>
+        <v>2850.1434514898406</v>
       </c>
       <c r="D62">
-        <v>-5.9874830017859155</v>
+        <v>-5.8940329064434298</v>
       </c>
       <c r="E62">
-        <v>-1.9211937967929771</v>
+        <v>-5.654851015924578E-2</v>
       </c>
       <c r="F62">
-        <v>-7.4830017859150999E-3</v>
+        <v>3.5967093556569907E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B63">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="C63">
-        <v>2851.2279506611762</v>
+        <v>2851.1010307665506</v>
       </c>
       <c r="D63">
-        <v>-4.0153763120421804</v>
+        <v>-3.8764913872085693</v>
       </c>
       <c r="E63">
-        <v>-0.87204933882367186</v>
+        <v>0.9010307665507753</v>
       </c>
       <c r="F63">
-        <v>-3.5376312042180391E-2</v>
+        <v>2.3508612791430572E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B64">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="C64">
-        <v>2851.2967086097033</v>
+        <v>2849.2787365965651</v>
       </c>
       <c r="D64">
-        <v>-2.0413384063476321</v>
+        <v>-1.8834705894063788</v>
       </c>
       <c r="E64">
-        <v>-0.80329139029663565</v>
+        <v>-0.92126340343475022</v>
       </c>
       <c r="F64">
-        <v>-6.1338406347632102E-2</v>
+        <v>1.6529410593621119E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C65">
-        <v>2852.0440027262725</v>
+        <v>2851.597725693196</v>
       </c>
       <c r="D65">
-        <v>-6.0373887529790976E-2</v>
+        <v>9.8924676326945682E-2</v>
       </c>
       <c r="E65">
-        <v>-5.5997273727371066E-2</v>
+        <v>1.3977256931962074</v>
       </c>
       <c r="F65">
-        <v>-6.0373887529790976E-2</v>
+        <v>-1.0753236730543236E-3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C66">
-        <v>2852.6367894473633</v>
+        <v>2849.4809207533058</v>
       </c>
       <c r="D66">
-        <v>1.9322527766249269</v>
+        <v>2.1099114148331521</v>
       </c>
       <c r="E66">
-        <v>0.53678944736338963</v>
+        <v>-0.71907924669403656</v>
       </c>
       <c r="F66">
-        <v>-6.7747223375073107E-2</v>
+        <v>9.9114148331520546E-3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="C67">
-        <v>2851.7065677816645</v>
+        <v>2849.478979031705</v>
       </c>
       <c r="D67">
-        <v>3.9383491667161872</v>
+        <v>4.0816113824112872</v>
       </c>
       <c r="E67">
-        <v>-0.39343221833541975</v>
+        <v>-0.72102096829485163</v>
       </c>
       <c r="F67">
-        <v>-6.1650833283812823E-2</v>
+        <v>1.61138241128711E-3</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B68">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="C68">
-        <v>2850.9578253417753</v>
+        <v>2850.5142413209051</v>
       </c>
       <c r="D68">
-        <v>5.930287411125807</v>
+        <v>6.0934426116836171</v>
       </c>
       <c r="E68">
-        <v>-1.142174658224576</v>
+        <v>0.31424132090523926</v>
       </c>
       <c r="F68">
-        <v>-3.9712588874192711E-2</v>
+        <v>-6.5573883163825286E-3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B69">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="C69">
-        <v>2851.4598685949909</v>
+        <v>2850.6134870221249</v>
       </c>
       <c r="D69">
-        <v>7.9666404779117768</v>
+        <v>8.0764906056048744</v>
       </c>
       <c r="E69">
-        <v>-0.640131405009015</v>
+        <v>0.41348702212508215</v>
       </c>
       <c r="F69">
-        <v>6.6640477911776408E-2</v>
+        <v>6.4906056048741334E-3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B70">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C70">
-        <v>2850.8279158278501</v>
+        <v>2850.1164667696066</v>
       </c>
       <c r="D70">
-        <v>10.056035957481523</v>
+        <v>10.053814017521516</v>
       </c>
       <c r="E70">
-        <v>-1.2720841721497891</v>
+        <v>-8.3533230393186386E-2</v>
       </c>
       <c r="F70">
-        <v>2.6035957481523653E-2</v>
+        <v>8.3814017521515183E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B71">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="C71">
-        <v>2852.3614064468134</v>
+        <v>2849.1649433465918</v>
       </c>
       <c r="D71">
-        <v>11.9993369830518</v>
+        <v>12.1312878891647</v>
       </c>
       <c r="E71">
-        <v>0.26140644681345293</v>
+        <v>-1.0350566534079917</v>
       </c>
       <c r="F71">
-        <v>1.9336983051799095E-2</v>
+        <v>3.1287889164699934E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B72">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="C72">
-        <v>2850.1479924752534</v>
+        <v>2848.2134369557211</v>
       </c>
       <c r="D72">
-        <v>13.999200278796918</v>
+        <v>14.085371329205854</v>
       </c>
       <c r="E72">
-        <v>-1.9520075247464774</v>
+        <v>-1.9865630442786824</v>
       </c>
       <c r="F72">
-        <v>1.9200278796917658E-2</v>
+        <v>1.5371329205853712E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>2852.1</v>
+        <v>2850.2</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="C73">
-        <v>2851.1306426023284</v>
+        <v>2849.4124789956663</v>
       </c>
       <c r="D73">
-        <v>15.978251229064126</v>
+        <v>16.041440524797611</v>
       </c>
       <c r="E73">
-        <v>-0.96935739767150153</v>
+        <v>-0.7875210043334846</v>
       </c>
       <c r="F73">
-        <v>-2.1748770935873907E-2</v>
+        <v>-2.8559475202388995E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2951.2002533107693</v>
+        <v>2949.9766169155541</v>
       </c>
       <c r="D74">
-        <v>-7.264658008338358E-2</v>
+        <v>-1.1426494155452693E-2</v>
       </c>
       <c r="E74">
-        <v>-0.59974668923086938</v>
+        <v>7.6616915554041043E-2</v>
       </c>
       <c r="F74">
-        <v>-7.264658008338358E-2</v>
+        <v>-1.1426494155452693E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B75">
         <v>-16.07</v>
       </c>
       <c r="C75">
-        <v>2951.1006954738627</v>
+        <v>2950.322200966219</v>
       </c>
       <c r="D75">
-        <v>-15.789608824777225</v>
+        <v>-16.11468330380054</v>
       </c>
       <c r="E75">
-        <v>-0.6993045261374391</v>
+        <v>0.42220096621895209</v>
       </c>
       <c r="F75">
-        <v>0.28039117522277479</v>
+        <v>-4.468330380053942E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B76">
         <v>-13.98</v>
       </c>
       <c r="C76">
-        <v>2952.0129783091052</v>
+        <v>2949.2998829940016</v>
       </c>
       <c r="D76">
-        <v>-13.762127831231385</v>
+        <v>-13.985449577815817</v>
       </c>
       <c r="E76">
-        <v>0.21297830910498305</v>
+        <v>-0.60011700599852702</v>
       </c>
       <c r="F76">
-        <v>0.21787216876861493</v>
+        <v>-5.4495778158170083E-3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B77">
-        <v>-11.98</v>
+        <v>-11.95</v>
       </c>
       <c r="C77">
-        <v>2950.7667517936952</v>
+        <v>2949.4204129313812</v>
       </c>
       <c r="D77">
-        <v>-11.821392986818729</v>
+        <v>-11.941291492171178</v>
       </c>
       <c r="E77">
-        <v>-1.0332482063049611</v>
+        <v>-0.47958706861891187</v>
       </c>
       <c r="F77">
-        <v>0.15860701318127113</v>
+        <v>8.7085078288211548E-3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B78">
-        <v>-9.98</v>
+        <v>-9.9499999999999993</v>
       </c>
       <c r="C78">
-        <v>2950.466783231584</v>
+        <v>2948.0146509463621</v>
       </c>
       <c r="D78">
-        <v>-9.8681839413057411</v>
+        <v>-9.9167360229677364</v>
       </c>
       <c r="E78">
-        <v>-1.3332167684161504</v>
+        <v>-1.8853490536380377</v>
       </c>
       <c r="F78">
-        <v>0.11181605869425937</v>
+        <v>3.3263977032262915E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B79">
-        <v>-7.95</v>
+        <v>-7.93</v>
       </c>
       <c r="C79">
-        <v>2950.1976136681719</v>
+        <v>2949.5393716774352</v>
       </c>
       <c r="D79">
-        <v>-7.911546553121573</v>
+        <v>-7.8903971380359259</v>
       </c>
       <c r="E79">
-        <v>-1.6023863318282565</v>
+        <v>-0.36062832256493493</v>
       </c>
       <c r="F79">
-        <v>3.8453446878427222E-2</v>
+        <v>3.960286196407381E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B80">
-        <v>-5.98</v>
+        <v>-5.9</v>
       </c>
       <c r="C80">
-        <v>2949.8676187344977</v>
+        <v>2950.0661345490576</v>
       </c>
       <c r="D80">
-        <v>-5.9644746371417776</v>
+        <v>-5.8808055342039287</v>
       </c>
       <c r="E80">
-        <v>-1.9323812655024994</v>
+        <v>0.16613454905746039</v>
       </c>
       <c r="F80">
-        <v>1.5525362858222813E-2</v>
+        <v>1.9194465796071647E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B81">
-        <v>-3.98</v>
+        <v>-3.9</v>
       </c>
       <c r="C81">
-        <v>2950.7364561653953</v>
+        <v>2949.1925045540761</v>
       </c>
       <c r="D81">
-        <v>-3.983870116456472</v>
+        <v>-3.8938967541566485</v>
       </c>
       <c r="E81">
-        <v>-1.0635438346048431</v>
+        <v>-0.70749544592399616</v>
       </c>
       <c r="F81">
-        <v>-3.8701164564720614E-3</v>
+        <v>6.1032458433514236E-3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B82">
-        <v>-1.98</v>
+        <v>-1.9</v>
       </c>
       <c r="C82">
-        <v>2952.6286307611199</v>
+        <v>2950.8073091959168</v>
       </c>
       <c r="D82">
-        <v>-2.0137243137228711</v>
+        <v>-1.9019162795325364</v>
       </c>
       <c r="E82">
-        <v>0.82863076111971168</v>
+        <v>0.9073091959166959</v>
       </c>
       <c r="F82">
-        <v>-3.3724313722871102E-2</v>
+        <v>-1.9162795325364801E-3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C83">
-        <v>2951.4400157494847</v>
+        <v>2950.0637727104017</v>
       </c>
       <c r="D83">
-        <v>-4.2123628788610396E-2</v>
+        <v>9.5350623528006676E-2</v>
       </c>
       <c r="E83">
-        <v>-0.35998425051548111</v>
+        <v>0.16377271040164487</v>
       </c>
       <c r="F83">
-        <v>-4.2123628788610396E-2</v>
+        <v>2.5350623528006669E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C84">
-        <v>2951.8215784679724</v>
+        <v>2951.6381131202852</v>
       </c>
       <c r="D84">
-        <v>1.9456704235303772</v>
+        <v>2.0911002117983242</v>
       </c>
       <c r="E84">
-        <v>2.1578467972176441E-2</v>
+        <v>1.7381131202851066</v>
       </c>
       <c r="F84">
-        <v>-5.4329576469622776E-2</v>
+        <v>-8.8997882016759178E-3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>4.08</v>
       </c>
       <c r="C85">
-        <v>2952.5550314848497</v>
+        <v>2950.5947612812342</v>
       </c>
       <c r="D85">
-        <v>3.9542512027362671</v>
+        <v>4.076937321639539</v>
       </c>
       <c r="E85">
-        <v>0.75503148484949634</v>
+        <v>0.69476128123415037</v>
       </c>
       <c r="F85">
-        <v>-4.5748797263732932E-2</v>
+        <v>-3.0626783604610353E-3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B86">
-        <v>5.97</v>
+        <v>6.1</v>
       </c>
       <c r="C86">
-        <v>2952.2850256838947</v>
+        <v>2949.903411790996</v>
       </c>
       <c r="D86">
-        <v>5.9496852175177848</v>
+        <v>6.0880952769545571</v>
       </c>
       <c r="E86">
-        <v>0.48502568389449152</v>
+        <v>3.4117909958695236E-3</v>
       </c>
       <c r="F86">
-        <v>-2.0314782482214966E-2</v>
+        <v>-1.1904723045442545E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B87">
-        <v>7.9</v>
+        <v>8.07</v>
       </c>
       <c r="C87">
-        <v>2950.6084982212019</v>
+        <v>2949.3406643432027</v>
       </c>
       <c r="D87">
-        <v>7.9716423425957483</v>
+        <v>8.0407068415887064</v>
       </c>
       <c r="E87">
-        <v>-1.1915017787982833</v>
+        <v>-0.55933565679742969</v>
       </c>
       <c r="F87">
-        <v>7.1642342595747976E-2</v>
+        <v>-2.9293158411293874E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B88">
-        <v>10.029999999999999</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="C88">
-        <v>2951.0782856898768</v>
+        <v>2950.0725553160055</v>
       </c>
       <c r="D88">
-        <v>10.04845936691925</v>
+        <v>10.03940374983023</v>
       </c>
       <c r="E88">
-        <v>-0.72171431012338871</v>
+        <v>0.17255531600540053</v>
       </c>
       <c r="F88">
-        <v>1.8459366919250542E-2</v>
+        <v>6.9403749830229344E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B89">
-        <v>11.98</v>
+        <v>12.1</v>
       </c>
       <c r="C89">
-        <v>2950.4732876041071</v>
+        <v>2948.6045213864977</v>
       </c>
       <c r="D89">
-        <v>12.000253570285432</v>
+        <v>12.128933792053301</v>
       </c>
       <c r="E89">
-        <v>-1.3267123958930824</v>
+        <v>-1.2954786135023824</v>
       </c>
       <c r="F89">
-        <v>2.0253570285431621E-2</v>
+        <v>2.8933792053301488E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B90">
-        <v>13.98</v>
+        <v>14.07</v>
       </c>
       <c r="C90">
-        <v>2949.4006869661721</v>
+        <v>2946.765177144498</v>
       </c>
       <c r="D90">
-        <v>13.978629052841638</v>
+        <v>14.081041449096896</v>
       </c>
       <c r="E90" s="1">
-        <v>-2.3993130338280935</v>
+        <v>-3.1348228555020796</v>
       </c>
       <c r="F90">
-        <v>-1.3709471583620569E-3</v>
+        <v>1.1041449096895306E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>2951.8</v>
+        <v>2949.9</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>16.07</v>
       </c>
       <c r="C91">
-        <v>2951.1751286210301</v>
+        <v>2948.703537162206</v>
       </c>
       <c r="D91">
-        <v>15.974641707678892</v>
+        <v>16.043151267522738</v>
       </c>
       <c r="E91">
-        <v>-0.62487137897005596</v>
+        <v>-1.1964628377941153</v>
       </c>
       <c r="F91">
-        <v>-2.5358292321108422E-2</v>
+        <v>-2.6848732477262161E-2</v>
       </c>
     </row>
   </sheetData>

--- a/cam3_validation_result.xlsx
+++ b/cam3_validation_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voies\Desktop\GodEyesProject\CalibPro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF33A5B7-B0AC-4A20-A2AE-D30F1F71AF68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979B9ED-69B0-4C2F-9DD9-C0BA349B4EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15257" yWindow="3086" windowWidth="16192" windowHeight="13225" xr2:uid="{D49BA48B-295B-49C3-89D6-5EF2990A6FBC}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{D49BA48B-295B-49C3-89D6-5EF2990A6FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1821,16 +1821,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>101858</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>116631</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>692199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>493744</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>166395</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>389074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>137088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1857,16 +1857,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>29547</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>686637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>528736</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>66870</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>401934</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58496</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1902,8 +1902,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5682343" y="12602547"/>
-              <a:ext cx="2509936" cy="2731537"/>
+              <a:off x="4856703" y="3981899"/>
+              <a:ext cx="4580374" cy="2737817"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527DBC63-0594-49DE-B5FF-DC6DE7AD87EC}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
